--- a/Documentation/UseCase R2.xlsx
+++ b/Documentation/UseCase R2.xlsx
@@ -216,6 +216,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,10 +232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +537,7 @@
   <dimension ref="D7:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="A4 B11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -550,10 +550,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:5">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="4:5">
       <c r="D8" s="6">
@@ -608,10 +608,10 @@
       <c r="E14" s="2"/>
     </row>
     <row r="16" spans="4:5">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="8">
@@ -655,14 +655,14 @@
     </row>
     <row r="22" spans="4:5" ht="27.6" customHeight="1"/>
     <row r="23" spans="4:5">
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="4:5">
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="4:5">
       <c r="D25" s="8">
@@ -697,10 +697,10 @@
       </c>
     </row>
     <row r="32" spans="4:5">
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="8">
@@ -743,10 +743,10 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="4:5">
       <c r="D40" s="8">
@@ -760,7 +760,7 @@
       <c r="D41" s="8">
         <v>2</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -785,10 +785,10 @@
       <c r="E44" s="2"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="4:5">
       <c r="D47" s="8">
@@ -839,76 +839,76 @@
       </c>
     </row>
     <row r="56" spans="4:5">
-      <c r="E56" s="15"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="4:5">
-      <c r="E57" s="15"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="4:5">
-      <c r="E58" s="15"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="4:5">
-      <c r="E59" s="15"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="4:5">
-      <c r="E60" s="15"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="4:5">
-      <c r="E61" s="15"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="4:5">
-      <c r="E62" s="15"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="4:5">
-      <c r="E63" s="15"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="4:5">
-      <c r="E64" s="15"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="15"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="15"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="15"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="15"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="15"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="15"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="15"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="15"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="15"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="15"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="15"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="15"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="15"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="15"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="15"/>
+      <c r="E79" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
